--- a/Excel-XLSX/UN-LES.xlsx
+++ b/Excel-XLSX/UN-LES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,337 @@
     <t>1</t>
   </si>
   <si>
-    <t>Yx8l3R</t>
+    <t>7Ns0U6</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LES</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NGR</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
   <si>
     <t>1970</t>
@@ -105,28 +435,10 @@
     <t>ZAF</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>LES</t>
-  </si>
-  <si>
-    <t>LSO</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>52</t>
   </si>
   <si>
     <t>1971</t>
@@ -135,7 +447,7 @@
     <t>190</t>
   </si>
   <si>
-    <t>3</t>
+    <t>53</t>
   </si>
   <si>
     <t>1972</t>
@@ -144,7 +456,7 @@
     <t>60</t>
   </si>
   <si>
-    <t>4</t>
+    <t>54</t>
   </si>
   <si>
     <t>1973</t>
@@ -153,19 +465,13 @@
     <t>180</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1974</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1975</t>
   </si>
   <si>
-    <t>7</t>
+    <t>57</t>
   </si>
   <si>
     <t>1976</t>
@@ -174,16 +480,292 @@
     <t>900</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>1977</t>
   </si>
   <si>
     <t>930</t>
   </si>
   <si>
-    <t>9</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>11660</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZAM</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>262</t>
@@ -195,580 +777,31 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>11500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>11660</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>4248</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
   </si>
   <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>ALG</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>ZIM</t>
-  </si>
-  <si>
-    <t>ZWE</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NGR</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>ZAM</t>
-  </si>
-  <si>
-    <t>ZMB</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1186,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1293,8 +1326,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1338,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -1361,8 +1394,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>34</v>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1376,10 +1409,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1406,7 +1439,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -1429,8 +1462,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>34</v>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1444,10 +1477,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1474,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>34</v>
@@ -1497,8 +1530,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>34</v>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1512,22 +1545,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1542,10 +1575,10 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1565,8 +1598,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>34</v>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1586,16 +1619,16 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1610,10 +1643,10 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1648,22 +1681,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1678,10 +1711,10 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>34</v>
@@ -1716,22 +1749,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1746,10 +1779,10 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
@@ -1784,40 +1817,40 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>34</v>
@@ -1852,22 +1885,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1882,7 +1915,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
@@ -1905,8 +1938,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>34</v>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1923,19 +1956,19 @@
         <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1950,7 +1983,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>34</v>
@@ -1973,8 +2006,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>34</v>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1988,43 +2021,43 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="O13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>34</v>
@@ -2041,8 +2074,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>34</v>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -2056,22 +2089,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -2086,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -2109,8 +2142,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>34</v>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -2124,22 +2157,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -2154,7 +2187,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -2177,8 +2210,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>34</v>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -2192,22 +2225,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -2222,13 +2255,13 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>34</v>
@@ -2245,8 +2278,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>34</v>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -2260,22 +2293,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -2290,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
@@ -2313,8 +2346,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>34</v>
+      <c r="V17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2328,22 +2361,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2358,10 +2391,10 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -2381,8 +2414,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>34</v>
+      <c r="V18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2396,22 +2429,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2426,10 +2459,10 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -2449,8 +2482,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>34</v>
+      <c r="V19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -2464,22 +2497,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2494,10 +2527,10 @@
         <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>34</v>
@@ -2517,8 +2550,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>34</v>
+      <c r="V20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2532,22 +2565,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2562,10 +2595,10 @@
         <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>34</v>
@@ -2585,8 +2618,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>34</v>
+      <c r="V21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -2600,22 +2633,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2630,10 +2663,10 @@
         <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>34</v>
@@ -2653,8 +2686,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>34</v>
+      <c r="V22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -2668,22 +2701,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2698,10 +2731,10 @@
         <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>34</v>
@@ -2736,22 +2769,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2766,10 +2799,10 @@
         <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>34</v>
@@ -2804,23 +2837,23 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2834,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>34</v>
@@ -2857,8 +2890,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>34</v>
+      <c r="V25" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -2872,22 +2905,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2902,7 +2935,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2925,8 +2958,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>34</v>
+      <c r="V26" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2940,22 +2973,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2970,7 +3003,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2993,8 +3026,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>34</v>
+      <c r="V27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -3008,22 +3041,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -3038,10 +3071,10 @@
         <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>34</v>
@@ -3061,8 +3094,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>34</v>
+      <c r="V28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -3076,22 +3109,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -3106,10 +3139,10 @@
         <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -3129,8 +3162,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>34</v>
+      <c r="V29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -3144,22 +3177,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -3174,10 +3207,10 @@
         <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -3197,8 +3230,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>34</v>
+      <c r="V30" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -3212,22 +3245,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -3242,10 +3275,10 @@
         <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -3280,22 +3313,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3310,10 +3343,10 @@
         <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>34</v>
@@ -3348,22 +3381,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3378,7 +3411,7 @@
         <v>32</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>34</v>
@@ -3401,8 +3434,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>34</v>
+      <c r="V33" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -3416,22 +3449,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3446,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>34</v>
@@ -3469,8 +3502,8 @@
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>34</v>
+      <c r="V34" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -3484,22 +3517,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3514,7 +3547,7 @@
         <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>34</v>
@@ -3537,8 +3570,8 @@
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>34</v>
+      <c r="V35" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -3552,38 +3585,38 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="O36" s="2" t="s">
         <v>34</v>
       </c>
@@ -3605,8 +3638,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>34</v>
+      <c r="V36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -3620,22 +3653,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3650,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>34</v>
@@ -3673,8 +3706,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>34</v>
+      <c r="V37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -3688,22 +3721,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3718,7 +3751,7 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>34</v>
@@ -3741,8 +3774,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>34</v>
+      <c r="V38" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -3756,22 +3789,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3786,10 +3819,10 @@
         <v>32</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>34</v>
@@ -3809,8 +3842,8 @@
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>34</v>
+      <c r="V39" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -3824,22 +3857,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3854,10 +3887,10 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>34</v>
@@ -3877,8 +3910,8 @@
       <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>34</v>
+      <c r="V40" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -3892,22 +3925,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3922,10 +3955,10 @@
         <v>32</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>34</v>
@@ -3960,22 +3993,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -3990,10 +4023,10 @@
         <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>34</v>
@@ -4028,22 +4061,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -4058,7 +4091,7 @@
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>34</v>
@@ -4076,7 +4109,7 @@
         <v>34</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>35</v>
@@ -4096,22 +4129,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -4126,7 +4159,7 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>34</v>
@@ -4144,7 +4177,7 @@
         <v>34</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>35</v>
@@ -4164,22 +4197,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -4194,10 +4227,10 @@
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>34</v>
@@ -4217,8 +4250,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>34</v>
+      <c r="V45" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -4232,23 +4265,23 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
       </c>
@@ -4262,10 +4295,10 @@
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>34</v>
@@ -4285,8 +4318,8 @@
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>34</v>
+      <c r="V46" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47">
@@ -4300,22 +4333,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4330,10 +4363,10 @@
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>34</v>
@@ -4353,8 +4386,8 @@
       <c r="U47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>34</v>
+      <c r="V47" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48">
@@ -4368,40 +4401,40 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>34</v>
@@ -4436,22 +4469,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4466,10 +4499,10 @@
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>34</v>
@@ -4504,22 +4537,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4534,10 +4567,10 @@
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>34</v>
@@ -4572,22 +4605,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4602,10 +4635,10 @@
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>34</v>
@@ -4640,22 +4673,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
@@ -4670,7 +4703,7 @@
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>34</v>
@@ -4693,8 +4726,8 @@
       <c r="U52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>34</v>
+      <c r="V52" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -4708,22 +4741,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4738,7 +4771,7 @@
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>34</v>
@@ -4761,8 +4794,8 @@
       <c r="U53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>34</v>
+      <c r="V53" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -4776,22 +4809,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4806,7 +4839,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>34</v>
@@ -4829,8 +4862,8 @@
       <c r="U54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>34</v>
+      <c r="V54" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -4844,22 +4877,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
@@ -4874,7 +4907,7 @@
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>34</v>
@@ -4897,8 +4930,8 @@
       <c r="U55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>34</v>
+      <c r="V55" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -4912,22 +4945,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -4942,7 +4975,7 @@
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>34</v>
@@ -4965,8 +4998,8 @@
       <c r="U56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>34</v>
+      <c r="V56" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -4980,22 +5013,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -5010,7 +5043,7 @@
         <v>32</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>34</v>
@@ -5033,8 +5066,8 @@
       <c r="U57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>34</v>
+      <c r="V57" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -5048,22 +5081,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -5078,7 +5111,7 @@
         <v>32</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>34</v>
@@ -5101,8 +5134,8 @@
       <c r="U58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>34</v>
+      <c r="V58" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59">
@@ -5116,22 +5149,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>29</v>
@@ -5146,7 +5179,7 @@
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>34</v>
@@ -5169,8 +5202,8 @@
       <c r="U59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>34</v>
+      <c r="V59" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -5184,22 +5217,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>29</v>
@@ -5214,7 +5247,7 @@
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>34</v>
@@ -5237,8 +5270,8 @@
       <c r="U60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>34</v>
+      <c r="V60" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -5252,10 +5285,10 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>135</v>
@@ -5267,7 +5300,7 @@
         <v>137</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>29</v>
@@ -5282,7 +5315,7 @@
         <v>32</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>34</v>
@@ -5305,8 +5338,8 @@
       <c r="U61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>34</v>
+      <c r="V61" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -5320,22 +5353,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>29</v>
@@ -5350,10 +5383,10 @@
         <v>32</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>34</v>
@@ -5373,8 +5406,8 @@
       <c r="U62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>34</v>
+      <c r="V62" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -5388,38 +5421,38 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O63" s="2" t="s">
         <v>34</v>
       </c>
@@ -5441,8 +5474,8 @@
       <c r="U63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>34</v>
+      <c r="V63" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -5456,22 +5489,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>29</v>
@@ -5486,13 +5519,13 @@
         <v>32</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>34</v>
@@ -5509,8 +5542,8 @@
       <c r="U64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>34</v>
+      <c r="V64" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -5524,22 +5557,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>29</v>
@@ -5554,7 +5587,7 @@
         <v>32</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>34</v>
@@ -5577,8 +5610,8 @@
       <c r="U65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>34</v>
+      <c r="V65" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66">
@@ -5592,10 +5625,10 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>135</v>
@@ -5607,7 +5640,7 @@
         <v>137</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>29</v>
@@ -5622,7 +5655,7 @@
         <v>32</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>34</v>
@@ -5645,8 +5678,8 @@
       <c r="U66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>34</v>
+      <c r="V66" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67">
@@ -5660,22 +5693,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>29</v>
@@ -5690,7 +5723,7 @@
         <v>32</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>34</v>
@@ -5713,8 +5746,8 @@
       <c r="U67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>34</v>
+      <c r="V67" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -5728,22 +5761,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>29</v>
@@ -5758,7 +5791,7 @@
         <v>32</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>34</v>
@@ -5781,8 +5814,8 @@
       <c r="U68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>34</v>
+      <c r="V68" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -5802,16 +5835,16 @@
         <v>179</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>29</v>
@@ -5826,10 +5859,10 @@
         <v>32</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>34</v>
@@ -5849,8 +5882,8 @@
       <c r="U69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>34</v>
+      <c r="V69" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -5864,22 +5897,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>29</v>
@@ -5894,7 +5927,7 @@
         <v>32</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>34</v>
@@ -5917,8 +5950,8 @@
       <c r="U70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>34</v>
+      <c r="V70" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="71">
@@ -5932,10 +5965,10 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>135</v>
@@ -5947,7 +5980,7 @@
         <v>137</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>29</v>
@@ -5962,7 +5995,7 @@
         <v>32</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>34</v>
@@ -5985,8 +6018,8 @@
       <c r="U71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>34</v>
+      <c r="V71" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -6000,22 +6033,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>29</v>
@@ -6030,10 +6063,10 @@
         <v>32</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>34</v>
@@ -6053,8 +6086,8 @@
       <c r="U72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>34</v>
+      <c r="V72" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="73">
@@ -6068,22 +6101,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>29</v>
@@ -6098,10 +6131,10 @@
         <v>32</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>34</v>
@@ -6121,8 +6154,8 @@
       <c r="U73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>34</v>
+      <c r="V73" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -6136,10 +6169,10 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>135</v>
@@ -6151,7 +6184,7 @@
         <v>137</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>29</v>
@@ -6166,7 +6199,7 @@
         <v>32</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>34</v>
@@ -6189,8 +6222,8 @@
       <c r="U74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>34</v>
+      <c r="V74" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75">
@@ -6204,22 +6237,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>29</v>
@@ -6234,10 +6267,10 @@
         <v>32</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>34</v>
@@ -6257,8 +6290,8 @@
       <c r="U75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>34</v>
+      <c r="V75" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76">
@@ -6272,22 +6305,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>29</v>
@@ -6302,7 +6335,7 @@
         <v>32</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>34</v>
@@ -6325,8 +6358,8 @@
       <c r="U76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>34</v>
+      <c r="V76" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -6340,22 +6373,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>29</v>
@@ -6370,7 +6403,7 @@
         <v>32</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>34</v>
@@ -6393,8 +6426,8 @@
       <c r="U77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>34</v>
+      <c r="V77" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -6408,22 +6441,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>29</v>
@@ -6438,10 +6471,10 @@
         <v>32</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>34</v>
@@ -6461,8 +6494,8 @@
       <c r="U78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>34</v>
+      <c r="V78" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -6476,22 +6509,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>29</v>
@@ -6506,10 +6539,10 @@
         <v>32</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>34</v>
@@ -6529,8 +6562,8 @@
       <c r="U79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>34</v>
+      <c r="V79" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -6544,22 +6577,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>29</v>
@@ -6574,10 +6607,10 @@
         <v>32</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>34</v>
@@ -6612,22 +6645,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>29</v>
@@ -6645,7 +6678,7 @@
         <v>34</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>34</v>
@@ -6680,22 +6713,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>29</v>
@@ -6710,10 +6743,10 @@
         <v>32</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>34</v>
@@ -6733,8 +6766,8 @@
       <c r="U82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>34</v>
+      <c r="V82" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -6748,22 +6781,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>29</v>
@@ -6778,7 +6811,7 @@
         <v>32</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>34</v>
@@ -6801,8 +6834,8 @@
       <c r="U83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>34</v>
+      <c r="V83" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -6816,22 +6849,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>29</v>
@@ -6846,7 +6879,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>34</v>
@@ -6869,8 +6902,8 @@
       <c r="U84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V84" s="2" t="s">
-        <v>34</v>
+      <c r="V84" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="85">
@@ -6884,22 +6917,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>29</v>
@@ -6914,7 +6947,7 @@
         <v>32</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>34</v>
@@ -6937,8 +6970,8 @@
       <c r="U85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V85" s="2" t="s">
-        <v>34</v>
+      <c r="V85" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -6952,22 +6985,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="G86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>29</v>
@@ -6982,10 +7015,10 @@
         <v>32</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>34</v>
@@ -7005,8 +7038,8 @@
       <c r="U86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>34</v>
+      <c r="V86" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="87">
@@ -7020,22 +7053,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>29</v>
@@ -7050,10 +7083,10 @@
         <v>32</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>34</v>
@@ -7073,8 +7106,8 @@
       <c r="U87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>34</v>
+      <c r="V87" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -7091,19 +7124,19 @@
         <v>221</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H88" s="1" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>29</v>
@@ -7118,10 +7151,10 @@
         <v>32</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>34</v>
@@ -7141,8 +7174,8 @@
       <c r="U88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>34</v>
+      <c r="V88" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -7159,19 +7192,19 @@
         <v>222</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>29</v>
@@ -7186,10 +7219,10 @@
         <v>32</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>34</v>
@@ -7209,8 +7242,8 @@
       <c r="U89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>34</v>
+      <c r="V89" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90">
@@ -7224,22 +7257,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>29</v>
@@ -7254,10 +7287,10 @@
         <v>32</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>34</v>
@@ -7277,8 +7310,8 @@
       <c r="U90" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>34</v>
+      <c r="V90" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -7292,22 +7325,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>29</v>
@@ -7322,10 +7355,10 @@
         <v>32</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>34</v>
@@ -7345,8 +7378,8 @@
       <c r="U91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>34</v>
+      <c r="V91" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -7360,22 +7393,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>29</v>
@@ -7390,10 +7423,10 @@
         <v>32</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>34</v>
@@ -7413,8 +7446,8 @@
       <c r="U92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>34</v>
+      <c r="V92" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93">
@@ -7428,22 +7461,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>29</v>
@@ -7458,10 +7491,10 @@
         <v>32</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>34</v>
@@ -7481,8 +7514,8 @@
       <c r="U93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>34</v>
+      <c r="V93" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="94">
@@ -7496,22 +7529,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>29</v>
@@ -7526,10 +7559,10 @@
         <v>32</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>34</v>
@@ -7564,22 +7597,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>29</v>
@@ -7594,10 +7627,10 @@
         <v>32</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>34</v>
@@ -7632,22 +7665,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>29</v>
@@ -7662,10 +7695,10 @@
         <v>32</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>34</v>
@@ -7685,8 +7718,8 @@
       <c r="U96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>34</v>
+      <c r="V96" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="97">
@@ -7700,22 +7733,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>29</v>
@@ -7730,10 +7763,10 @@
         <v>32</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>34</v>
@@ -7753,8 +7786,8 @@
       <c r="U97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>34</v>
+      <c r="V97" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="98">
@@ -7768,22 +7801,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>29</v>
@@ -7798,10 +7831,10 @@
         <v>32</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>34</v>
@@ -7836,22 +7869,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>29</v>
@@ -7866,10 +7899,10 @@
         <v>32</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>34</v>
@@ -7904,22 +7937,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>29</v>
@@ -7934,10 +7967,10 @@
         <v>32</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>34</v>
@@ -7957,8 +7990,8 @@
       <c r="U100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>34</v>
+      <c r="V100" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101">
@@ -7972,22 +8005,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>29</v>
@@ -8002,7 +8035,7 @@
         <v>32</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>34</v>
@@ -8020,13 +8053,13 @@
         <v>34</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>34</v>
+      <c r="V101" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -8040,22 +8073,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>29</v>
@@ -8070,10 +8103,10 @@
         <v>32</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>34</v>
@@ -8093,8 +8126,8 @@
       <c r="U102" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>34</v>
+      <c r="V102" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -8108,22 +8141,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>29</v>
@@ -8138,10 +8171,10 @@
         <v>32</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>34</v>
@@ -8161,8 +8194,8 @@
       <c r="U103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>34</v>
+      <c r="V103" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="104">
@@ -8176,22 +8209,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
@@ -8206,10 +8239,10 @@
         <v>32</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>34</v>
@@ -8229,8 +8262,8 @@
       <c r="U104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>34</v>
+      <c r="V104" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="105">
@@ -8244,22 +8277,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>29</v>
@@ -8274,10 +8307,10 @@
         <v>32</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>34</v>
@@ -8297,8 +8330,8 @@
       <c r="U105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>34</v>
+      <c r="V105" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="106">
@@ -8312,22 +8345,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>29</v>
@@ -8342,7 +8375,7 @@
         <v>32</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>34</v>
@@ -8365,8 +8398,8 @@
       <c r="U106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>34</v>
+      <c r="V106" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107">
@@ -8380,61 +8413,809 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="G112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V107" s="2" t="s">
-        <v>34</v>
+      <c r="O113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LES.xlsx
+++ b/Excel-XLSX/UN-LES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7Ns0U6</t>
+    <t>rtZ9QZ</t>
   </si>
   <si>
     <t>2011</t>
@@ -189,30 +189,30 @@
     <t>9</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -291,10 +291,10 @@
     <t>23</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>148</t>
+    <t>242</t>
+  </si>
+  <si>
+    <t>151</t>
   </si>
   <si>
     <t>56</t>
@@ -336,357 +336,360 @@
     <t>55</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NGR</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>11660</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NGR</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>11500</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>11660</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>4248</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -702,6 +705,9 @@
     <t>95</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>213</t>
   </si>
   <si>
@@ -714,9 +720,6 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -726,6 +729,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>214</t>
   </si>
   <si>
@@ -738,9 +744,6 @@
     <t>ZWE</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -783,9 +786,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>2001</t>
@@ -1186,7 +1189,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1326,8 +1329,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1394,8 +1397,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1462,8 +1465,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1530,8 +1533,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1598,8 +1601,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1938,8 +1941,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2006,8 +2009,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2021,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -2074,8 +2077,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2089,7 +2092,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -2142,8 +2145,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2210,8 +2213,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2278,8 +2281,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2346,8 +2349,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>35</v>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2414,8 +2417,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2482,8 +2485,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>35</v>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2550,8 +2553,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>35</v>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2618,8 +2621,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>35</v>
+      <c r="V21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2686,8 +2689,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>35</v>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2890,8 +2893,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>35</v>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2958,8 +2961,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>35</v>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -3026,8 +3029,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>35</v>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3074,7 +3077,7 @@
         <v>65</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>34</v>
@@ -3094,8 +3097,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>35</v>
+      <c r="V28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3162,8 +3165,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>35</v>
+      <c r="V29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -3230,8 +3233,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>35</v>
+      <c r="V30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3434,8 +3437,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>35</v>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3502,8 +3505,8 @@
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>35</v>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3570,8 +3573,8 @@
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>35</v>
+      <c r="V35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3615,7 +3618,7 @@
         <v>32</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>34</v>
@@ -3638,8 +3641,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>35</v>
+      <c r="V36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3706,8 +3709,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>35</v>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3751,7 +3754,7 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>34</v>
@@ -3774,8 +3777,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>35</v>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3842,8 +3845,8 @@
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>35</v>
+      <c r="V39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3910,8 +3913,8 @@
       <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>35</v>
+      <c r="V40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -4026,7 +4029,7 @@
         <v>63</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>34</v>
@@ -4250,8 +4253,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>35</v>
+      <c r="V45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -4318,8 +4321,8 @@
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>35</v>
+      <c r="V46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -4386,8 +4389,8 @@
       <c r="U47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>35</v>
+      <c r="V47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -4502,7 +4505,7 @@
         <v>42</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>34</v>
@@ -4726,8 +4729,8 @@
       <c r="U52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>35</v>
+      <c r="V52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -4794,8 +4797,8 @@
       <c r="U53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>35</v>
+      <c r="V53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -4862,8 +4865,8 @@
       <c r="U54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>35</v>
+      <c r="V54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -4930,8 +4933,8 @@
       <c r="U55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>35</v>
+      <c r="V55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -4998,8 +5001,8 @@
       <c r="U56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>35</v>
+      <c r="V56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -5066,8 +5069,8 @@
       <c r="U57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>35</v>
+      <c r="V57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -5134,8 +5137,8 @@
       <c r="U58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>35</v>
+      <c r="V58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -5202,8 +5205,8 @@
       <c r="U59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>35</v>
+      <c r="V59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -5270,8 +5273,8 @@
       <c r="U60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>35</v>
+      <c r="V60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -5338,8 +5341,8 @@
       <c r="U61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>35</v>
+      <c r="V61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -5406,8 +5409,8 @@
       <c r="U62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>35</v>
+      <c r="V62" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -5474,8 +5477,8 @@
       <c r="U63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>35</v>
+      <c r="V63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -5542,8 +5545,8 @@
       <c r="U64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>35</v>
+      <c r="V64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -5610,8 +5613,8 @@
       <c r="U65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>35</v>
+      <c r="V65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -5678,8 +5681,8 @@
       <c r="U66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>35</v>
+      <c r="V66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -5746,8 +5749,8 @@
       <c r="U67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>35</v>
+      <c r="V67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -5814,8 +5817,8 @@
       <c r="U68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>35</v>
+      <c r="V68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -5882,8 +5885,8 @@
       <c r="U69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>35</v>
+      <c r="V69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -5950,8 +5953,8 @@
       <c r="U70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>35</v>
+      <c r="V70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -6018,8 +6021,8 @@
       <c r="U71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>35</v>
+      <c r="V71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -6086,8 +6089,8 @@
       <c r="U72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>35</v>
+      <c r="V72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -6154,8 +6157,8 @@
       <c r="U73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>35</v>
+      <c r="V73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -6222,8 +6225,8 @@
       <c r="U74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>35</v>
+      <c r="V74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -6290,8 +6293,8 @@
       <c r="U75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>35</v>
+      <c r="V75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -6358,8 +6361,8 @@
       <c r="U76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>35</v>
+      <c r="V76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -6426,8 +6429,8 @@
       <c r="U77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>35</v>
+      <c r="V77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -6494,8 +6497,8 @@
       <c r="U78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>35</v>
+      <c r="V78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -6562,8 +6565,8 @@
       <c r="U79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>35</v>
+      <c r="V79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -6678,7 +6681,7 @@
         <v>34</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>34</v>
@@ -6766,8 +6769,8 @@
       <c r="U82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>35</v>
+      <c r="V82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -6784,19 +6787,19 @@
         <v>213</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>29</v>
@@ -6811,10 +6814,10 @@
         <v>32</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>34</v>
@@ -6834,8 +6837,8 @@
       <c r="U83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>35</v>
+      <c r="V83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -6849,22 +6852,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>29</v>
@@ -6879,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>34</v>
@@ -6902,8 +6905,8 @@
       <c r="U84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>35</v>
+      <c r="V84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -6920,19 +6923,19 @@
         <v>218</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>29</v>
@@ -6970,8 +6973,8 @@
       <c r="U85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>35</v>
+      <c r="V85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -6988,19 +6991,19 @@
         <v>219</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>29</v>
@@ -7038,8 +7041,8 @@
       <c r="U86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>35</v>
+      <c r="V86" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -7056,19 +7059,19 @@
         <v>220</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>29</v>
@@ -7106,8 +7109,8 @@
       <c r="U87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>35</v>
+      <c r="V87" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -7124,19 +7127,19 @@
         <v>221</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>29</v>
@@ -7174,8 +7177,8 @@
       <c r="U88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>35</v>
+      <c r="V88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -7192,19 +7195,19 @@
         <v>222</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>29</v>
@@ -7222,7 +7225,7 @@
         <v>42</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>34</v>
@@ -7242,8 +7245,8 @@
       <c r="U89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>35</v>
+      <c r="V89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -7257,22 +7260,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>29</v>
@@ -7287,10 +7290,10 @@
         <v>32</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>34</v>
@@ -7310,8 +7313,8 @@
       <c r="U90" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>35</v>
+      <c r="V90" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -7325,22 +7328,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>29</v>
@@ -7355,7 +7358,7 @@
         <v>32</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>34</v>
@@ -7378,8 +7381,8 @@
       <c r="U91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>35</v>
+      <c r="V91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -7393,22 +7396,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>29</v>
@@ -7446,8 +7449,8 @@
       <c r="U92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>35</v>
+      <c r="V92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -7464,19 +7467,19 @@
         <v>79</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>29</v>
@@ -7494,7 +7497,7 @@
         <v>56</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>34</v>
@@ -7514,8 +7517,8 @@
       <c r="U93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>35</v>
+      <c r="V93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -7529,22 +7532,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>29</v>
@@ -7597,22 +7600,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>29</v>
@@ -7665,22 +7668,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>29</v>
@@ -7695,10 +7698,10 @@
         <v>32</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>34</v>
@@ -7718,8 +7721,8 @@
       <c r="U96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>35</v>
+      <c r="V96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -7733,22 +7736,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>29</v>
@@ -7786,8 +7789,8 @@
       <c r="U97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>35</v>
+      <c r="V97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -7801,22 +7804,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>29</v>
@@ -7869,22 +7872,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>29</v>
@@ -7937,22 +7940,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>29</v>
@@ -7990,8 +7993,8 @@
       <c r="U100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>35</v>
+      <c r="V100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -8005,22 +8008,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I101" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>29</v>
@@ -8035,7 +8038,7 @@
         <v>32</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>34</v>
@@ -8058,8 +8061,8 @@
       <c r="U101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>35</v>
+      <c r="V101" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -8073,22 +8076,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>29</v>
@@ -8126,8 +8129,8 @@
       <c r="U102" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>35</v>
+      <c r="V102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -8141,22 +8144,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>29</v>
@@ -8171,7 +8174,7 @@
         <v>32</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>34</v>
@@ -8194,8 +8197,8 @@
       <c r="U103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>35</v>
+      <c r="V103" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -8212,19 +8215,19 @@
         <v>194</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
@@ -8239,7 +8242,7 @@
         <v>32</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>34</v>
@@ -8262,8 +8265,8 @@
       <c r="U104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>35</v>
+      <c r="V104" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -8277,22 +8280,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>29</v>
@@ -8307,7 +8310,7 @@
         <v>32</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>34</v>
@@ -8330,8 +8333,8 @@
       <c r="U105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>35</v>
+      <c r="V105" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -8345,22 +8348,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>29</v>
@@ -8398,8 +8401,8 @@
       <c r="U106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>35</v>
+      <c r="V106" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -8413,22 +8416,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>29</v>
@@ -8466,8 +8469,8 @@
       <c r="U107" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>35</v>
+      <c r="V107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -8481,22 +8484,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>29</v>
@@ -8534,8 +8537,8 @@
       <c r="U108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>35</v>
+      <c r="V108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -8549,22 +8552,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>29</v>
@@ -8602,8 +8605,8 @@
       <c r="U109" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>35</v>
+      <c r="V109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -8617,22 +8620,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>29</v>
@@ -8647,10 +8650,10 @@
         <v>32</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>34</v>
@@ -8688,19 +8691,19 @@
         <v>29</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>29</v>
@@ -8715,7 +8718,7 @@
         <v>32</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>56</v>
@@ -8753,22 +8756,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>29</v>
@@ -8783,10 +8786,10 @@
         <v>32</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>34</v>
@@ -8806,8 +8809,8 @@
       <c r="U112" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>35</v>
+      <c r="V112" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -8821,43 +8824,43 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="O113" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>34</v>
@@ -8874,8 +8877,8 @@
       <c r="U113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>35</v>
+      <c r="V113" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -8892,19 +8895,19 @@
         <v>256</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>29</v>
@@ -8925,7 +8928,7 @@
         <v>34</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>34</v>
@@ -8942,8 +8945,8 @@
       <c r="U114" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>35</v>
+      <c r="V114" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -8960,19 +8963,19 @@
         <v>257</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>29</v>
@@ -8987,7 +8990,7 @@
         <v>32</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>34</v>
@@ -9010,8 +9013,8 @@
       <c r="U115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>35</v>
+      <c r="V115" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -9028,19 +9031,19 @@
         <v>258</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>29</v>
@@ -9055,7 +9058,7 @@
         <v>32</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>34</v>
@@ -9078,8 +9081,8 @@
       <c r="U116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>35</v>
+      <c r="V116" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -9096,19 +9099,19 @@
         <v>259</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>29</v>
@@ -9123,7 +9126,7 @@
         <v>32</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>34</v>
@@ -9146,8 +9149,8 @@
       <c r="U117" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>35</v>
+      <c r="V117" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -9164,58 +9167,126 @@
         <v>260</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="E119" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N118" s="2" t="s">
+      <c r="I119" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V118" s="1" t="s">
-        <v>35</v>
+      <c r="O119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LES.xlsx
+++ b/Excel-XLSX/UN-LES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,12 +90,327 @@
     <t>rtZ9QZ</t>
   </si>
   <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LES</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>11660</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -105,190 +420,358 @@
     <t>DZA</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>LES</t>
-  </si>
-  <si>
-    <t>LSO</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>3</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>8</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>5</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NGR</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZAM</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
     <t>CMR</t>
   </si>
   <si>
-    <t>6</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>16</t>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>242</t>
@@ -297,495 +780,15 @@
     <t>151</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>55</t>
+    <t>109</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NGR</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>11500</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>11660</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>4248</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>ZAM</t>
-  </si>
-  <si>
-    <t>ZMB</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>ZIM</t>
-  </si>
-  <si>
-    <t>ZWE</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
@@ -804,7 +807,37 @@
     <t>118</t>
   </si>
   <si>
-    <t>2001</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1222,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1374,7 +1407,7 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -1412,10 +1445,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1442,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -1480,10 +1513,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1510,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>34</v>
@@ -1548,22 +1581,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1578,10 +1611,10 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1622,16 +1655,16 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1646,10 +1679,10 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1684,22 +1717,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1714,10 +1747,10 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>34</v>
@@ -1752,40 +1785,40 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
@@ -1820,22 +1853,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1850,10 +1883,10 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>34</v>
@@ -1888,22 +1921,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1918,7 +1951,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
@@ -1956,22 +1989,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1986,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>34</v>
@@ -2024,22 +2057,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -2054,13 +2087,13 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>34</v>
@@ -2092,22 +2125,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -2122,7 +2155,7 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -2160,22 +2193,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -2190,7 +2223,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -2228,22 +2261,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -2258,13 +2291,13 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>34</v>
@@ -2296,22 +2329,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -2326,7 +2359,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
@@ -2364,22 +2397,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2394,10 +2427,10 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -2432,22 +2465,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2462,10 +2495,10 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -2500,22 +2533,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2530,10 +2563,10 @@
         <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>34</v>
@@ -2568,22 +2601,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2598,10 +2631,10 @@
         <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>34</v>
@@ -2636,22 +2669,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2666,10 +2699,10 @@
         <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>34</v>
@@ -2704,22 +2737,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2734,10 +2767,10 @@
         <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>34</v>
@@ -2772,22 +2805,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2802,10 +2835,10 @@
         <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>34</v>
@@ -2840,22 +2873,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2870,7 +2903,7 @@
         <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>34</v>
@@ -2908,22 +2941,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2938,7 +2971,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2976,22 +3009,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -3006,7 +3039,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -3044,22 +3077,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -3074,10 +3107,10 @@
         <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>34</v>
@@ -3112,22 +3145,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -3142,10 +3175,10 @@
         <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -3180,22 +3213,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -3210,10 +3243,10 @@
         <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -3248,22 +3281,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -3278,10 +3311,10 @@
         <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -3316,22 +3349,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3346,10 +3379,10 @@
         <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>34</v>
@@ -3384,37 +3417,37 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>34</v>
@@ -3452,22 +3485,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3482,7 +3515,7 @@
         <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>34</v>
@@ -3520,22 +3553,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3550,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>34</v>
@@ -3588,22 +3621,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3618,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>34</v>
@@ -3656,22 +3689,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3686,7 +3719,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>34</v>
@@ -3724,22 +3757,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3754,7 +3787,7 @@
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>34</v>
@@ -3792,22 +3825,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3822,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>34</v>
@@ -3860,22 +3893,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3890,10 +3923,10 @@
         <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>34</v>
@@ -3928,22 +3961,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3958,10 +3991,10 @@
         <v>32</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>34</v>
@@ -3996,22 +4029,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -4026,10 +4059,10 @@
         <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>34</v>
@@ -4064,22 +4097,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -4094,7 +4127,7 @@
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>34</v>
@@ -4112,7 +4145,7 @@
         <v>34</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>35</v>
@@ -4132,22 +4165,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -4162,7 +4195,7 @@
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>34</v>
@@ -4180,7 +4213,7 @@
         <v>34</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>35</v>
@@ -4200,22 +4233,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -4230,10 +4263,10 @@
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>34</v>
@@ -4268,22 +4301,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -4298,10 +4331,10 @@
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>34</v>
@@ -4336,22 +4369,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4366,10 +4399,10 @@
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>34</v>
@@ -4404,22 +4437,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4434,10 +4467,10 @@
         <v>32</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>34</v>
@@ -4472,22 +4505,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4502,10 +4535,10 @@
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>34</v>
@@ -4540,22 +4573,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4570,10 +4603,10 @@
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>34</v>
@@ -4608,22 +4641,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4638,10 +4671,10 @@
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>34</v>
@@ -4676,23 +4709,23 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
       </c>
@@ -4706,7 +4739,7 @@
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>34</v>
@@ -4744,22 +4777,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4774,7 +4807,7 @@
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>34</v>
@@ -4812,22 +4845,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4842,7 +4875,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>34</v>
@@ -4880,23 +4913,23 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
       </c>
@@ -4910,7 +4943,7 @@
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>34</v>
@@ -4948,22 +4981,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -4978,7 +5011,7 @@
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>34</v>
@@ -5016,22 +5049,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -5046,7 +5079,7 @@
         <v>32</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>34</v>
@@ -5084,22 +5117,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -5114,7 +5147,7 @@
         <v>32</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>34</v>
@@ -5152,22 +5185,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>29</v>
@@ -5182,7 +5215,7 @@
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>34</v>
@@ -5220,22 +5253,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>29</v>
@@ -5250,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>34</v>
@@ -5288,19 +5321,19 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>138</v>
@@ -5318,7 +5351,7 @@
         <v>32</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>34</v>
@@ -5356,22 +5389,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>29</v>
@@ -5386,10 +5419,10 @@
         <v>32</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>34</v>
@@ -5424,22 +5457,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>29</v>
@@ -5454,7 +5487,7 @@
         <v>32</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>34</v>
@@ -5492,22 +5525,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>29</v>
@@ -5522,13 +5555,13 @@
         <v>32</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>34</v>
@@ -5560,23 +5593,23 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="I65" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J65" s="2" t="s">
         <v>29</v>
       </c>
@@ -5590,7 +5623,7 @@
         <v>32</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>34</v>
@@ -5628,19 +5661,19 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>138</v>
@@ -5658,7 +5691,7 @@
         <v>32</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>34</v>
@@ -5696,22 +5729,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>29</v>
@@ -5726,7 +5759,7 @@
         <v>32</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>34</v>
@@ -5764,22 +5797,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>29</v>
@@ -5794,7 +5827,7 @@
         <v>32</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>34</v>
@@ -5832,22 +5865,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>29</v>
@@ -5862,10 +5895,10 @@
         <v>32</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>34</v>
@@ -5903,19 +5936,19 @@
         <v>181</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>29</v>
@@ -5930,7 +5963,7 @@
         <v>32</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>34</v>
@@ -5968,19 +6001,19 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>138</v>
@@ -5998,7 +6031,7 @@
         <v>32</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>34</v>
@@ -6036,22 +6069,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>29</v>
@@ -6066,10 +6099,10 @@
         <v>32</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>34</v>
@@ -6104,22 +6137,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>29</v>
@@ -6134,10 +6167,10 @@
         <v>32</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>34</v>
@@ -6172,19 +6205,19 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>138</v>
@@ -6202,7 +6235,7 @@
         <v>32</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>34</v>
@@ -6240,22 +6273,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>29</v>
@@ -6270,10 +6303,10 @@
         <v>32</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>34</v>
@@ -6308,22 +6341,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>29</v>
@@ -6338,7 +6371,7 @@
         <v>32</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>34</v>
@@ -6376,22 +6409,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>29</v>
@@ -6406,7 +6439,7 @@
         <v>32</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>34</v>
@@ -6444,22 +6477,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>29</v>
@@ -6474,10 +6507,10 @@
         <v>32</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>34</v>
@@ -6512,22 +6545,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>29</v>
@@ -6542,10 +6575,10 @@
         <v>32</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>34</v>
@@ -6580,22 +6613,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>29</v>
@@ -6610,10 +6643,10 @@
         <v>32</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>34</v>
@@ -6648,23 +6681,23 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="J81" s="2" t="s">
         <v>29</v>
       </c>
@@ -6681,7 +6714,7 @@
         <v>34</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>34</v>
@@ -6716,22 +6749,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>29</v>
@@ -6746,10 +6779,10 @@
         <v>32</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>34</v>
@@ -6784,22 +6817,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>29</v>
@@ -6814,10 +6847,10 @@
         <v>32</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>34</v>
@@ -6852,22 +6885,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>29</v>
@@ -6882,7 +6915,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>34</v>
@@ -6920,22 +6953,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>29</v>
@@ -6950,7 +6983,7 @@
         <v>32</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>34</v>
@@ -6988,22 +7021,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>29</v>
@@ -7018,10 +7051,10 @@
         <v>32</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>34</v>
@@ -7056,40 +7089,40 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O87" s="2" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>34</v>
@@ -7124,22 +7157,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>29</v>
@@ -7154,10 +7187,10 @@
         <v>32</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>34</v>
@@ -7192,22 +7225,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>29</v>
@@ -7222,10 +7255,10 @@
         <v>32</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>34</v>
@@ -7260,22 +7293,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>29</v>
@@ -7290,10 +7323,10 @@
         <v>32</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>34</v>
@@ -7328,22 +7361,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>29</v>
@@ -7358,10 +7391,10 @@
         <v>32</v>
       </c>
       <c r="N91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>34</v>
@@ -7396,22 +7429,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>29</v>
@@ -7426,10 +7459,10 @@
         <v>32</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>34</v>
@@ -7464,22 +7497,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>29</v>
@@ -7494,7 +7527,7 @@
         <v>32</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>34</v>
@@ -7532,22 +7565,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>29</v>
@@ -7562,10 +7595,10 @@
         <v>32</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>34</v>
@@ -7600,22 +7633,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>29</v>
@@ -7630,10 +7663,10 @@
         <v>32</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>34</v>
@@ -7668,22 +7701,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>29</v>
@@ -7698,10 +7731,10 @@
         <v>32</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>34</v>
@@ -7736,22 +7769,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>29</v>
@@ -7766,10 +7799,10 @@
         <v>32</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>34</v>
@@ -7804,22 +7837,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>29</v>
@@ -7834,10 +7867,10 @@
         <v>32</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>34</v>
@@ -7872,22 +7905,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>29</v>
@@ -7902,10 +7935,10 @@
         <v>32</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>34</v>
@@ -7940,22 +7973,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>29</v>
@@ -7970,7 +8003,7 @@
         <v>32</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>34</v>
@@ -7988,7 +8021,7 @@
         <v>34</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>35</v>
@@ -8008,22 +8041,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>29</v>
@@ -8038,10 +8071,10 @@
         <v>32</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>34</v>
@@ -8076,22 +8109,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>29</v>
@@ -8106,10 +8139,10 @@
         <v>32</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>34</v>
@@ -8144,22 +8177,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>29</v>
@@ -8174,10 +8207,10 @@
         <v>32</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>34</v>
@@ -8212,22 +8245,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
@@ -8242,10 +8275,10 @@
         <v>32</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>34</v>
@@ -8280,22 +8313,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>29</v>
@@ -8310,7 +8343,7 @@
         <v>32</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>34</v>
@@ -8348,22 +8381,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>29</v>
@@ -8378,10 +8411,10 @@
         <v>32</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>34</v>
@@ -8416,22 +8449,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>29</v>
@@ -8446,10 +8479,10 @@
         <v>32</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>34</v>
@@ -8484,22 +8517,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>29</v>
@@ -8514,10 +8547,10 @@
         <v>32</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>34</v>
@@ -8552,22 +8585,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>29</v>
@@ -8582,10 +8615,10 @@
         <v>32</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>34</v>
@@ -8620,22 +8653,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>29</v>
@@ -8650,10 +8683,10 @@
         <v>32</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>34</v>
@@ -8691,19 +8724,19 @@
         <v>29</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>29</v>
@@ -8718,10 +8751,10 @@
         <v>32</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>34</v>
@@ -8756,22 +8789,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>29</v>
@@ -8786,10 +8819,10 @@
         <v>32</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>34</v>
@@ -8804,7 +8837,7 @@
         <v>34</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="U112" s="1" t="s">
         <v>35</v>
@@ -8824,22 +8857,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>29</v>
@@ -8854,10 +8887,10 @@
         <v>32</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>34</v>
@@ -8892,22 +8925,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>29</v>
@@ -8922,13 +8955,13 @@
         <v>32</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>34</v>
@@ -8960,22 +8993,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>29</v>
@@ -8990,10 +9023,10 @@
         <v>32</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>34</v>
@@ -9028,22 +9061,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>29</v>
@@ -9058,10 +9091,10 @@
         <v>32</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>34</v>
@@ -9096,22 +9129,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>29</v>
@@ -9126,10 +9159,10 @@
         <v>32</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>34</v>
@@ -9164,22 +9197,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>29</v>
@@ -9194,7 +9227,7 @@
         <v>32</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>34</v>
@@ -9232,22 +9265,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>29</v>
@@ -9262,10 +9295,10 @@
         <v>32</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>34</v>
@@ -9286,6 +9319,618 @@
         <v>35</v>
       </c>
       <c r="V119" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V124" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V128" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-LES.xlsx
+++ b/Excel-XLSX/UN-LES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>rtZ9QZ</t>
+    <t>Nm5lw4</t>
   </si>
   <si>
     <t>1970</t>
@@ -817,9 +817,6 @@
   </si>
   <si>
     <t>121</t>
-  </si>
-  <si>
-    <t>250</t>
   </si>
   <si>
     <t>122</t>
@@ -9366,7 +9363,7 @@
         <v>67</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>34</v>
@@ -9431,7 +9428,7 @@
         <v>32</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>45</v>
@@ -9499,10 +9496,10 @@
         <v>32</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>34</v>
@@ -9517,7 +9514,7 @@
         <v>34</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U122" s="1" t="s">
         <v>35</v>
@@ -9537,7 +9534,7 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>264</v>
@@ -9567,10 +9564,10 @@
         <v>32</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>34</v>
@@ -9605,7 +9602,7 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>264</v>
@@ -9635,10 +9632,10 @@
         <v>32</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>34</v>
@@ -9673,7 +9670,7 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>264</v>
@@ -9703,10 +9700,10 @@
         <v>32</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>34</v>
@@ -9741,7 +9738,7 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>264</v>
@@ -9771,10 +9768,10 @@
         <v>32</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>34</v>
@@ -9809,7 +9806,7 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>264</v>
@@ -9842,7 +9839,7 @@
         <v>34</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>34</v>
@@ -9877,7 +9874,7 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>264</v>
@@ -9907,10 +9904,10 @@
         <v>32</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>34</v>
